--- a/Jogos_do_Dia/2023-02-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -958,13 +958,13 @@
         <v>107</v>
       </c>
       <c r="F2">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="G2">
         <v>3.2</v>
       </c>
       <c r="H2">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>1.08</v>
@@ -979,10 +979,10 @@
         <v>2.9</v>
       </c>
       <c r="M2">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N2">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="O2">
         <v>1.46</v>
@@ -1030,7 +1030,7 @@
         <v>3.16</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE2">
         <v>1.64</v>
@@ -1042,7 +1042,7 @@
         <v>2.65</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -1062,13 +1062,13 @@
         <v>108</v>
       </c>
       <c r="F3">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
         <v>3.1</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
       </c>
       <c r="I3">
         <v>1.06</v>
@@ -1083,10 +1083,10 @@
         <v>3.25</v>
       </c>
       <c r="M3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="N3">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="O3">
         <v>1.4</v>
@@ -1166,13 +1166,13 @@
         <v>109</v>
       </c>
       <c r="F4">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G4">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H4">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="I4">
         <v>1.05</v>
@@ -1187,10 +1187,10 @@
         <v>3.6</v>
       </c>
       <c r="M4">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="N4">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O4">
         <v>1.38</v>
@@ -1270,13 +1270,13 @@
         <v>110</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1374,13 +1374,13 @@
         <v>111</v>
       </c>
       <c r="F6">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="G6">
-        <v>3.18</v>
+        <v>3.1</v>
       </c>
       <c r="H6">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="I6">
         <v>1.08</v>
@@ -1389,16 +1389,16 @@
         <v>6.35</v>
       </c>
       <c r="K6">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="L6">
-        <v>2.28</v>
+        <v>2.37</v>
       </c>
       <c r="M6">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="N6">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="O6">
         <v>1.56</v>
@@ -1446,19 +1446,19 @@
         <v>2.66</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE6">
         <v>1.98</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1478,13 +1478,13 @@
         <v>112</v>
       </c>
       <c r="F7">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="G7">
-        <v>3.3</v>
+        <v>3.56</v>
       </c>
       <c r="H7">
-        <v>4.05</v>
+        <v>4.34</v>
       </c>
       <c r="I7">
         <v>1.02</v>
@@ -1499,10 +1499,10 @@
         <v>3.08</v>
       </c>
       <c r="M7">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="N7">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="O7">
         <v>1.42</v>
@@ -1686,13 +1686,13 @@
         <v>114</v>
       </c>
       <c r="F9">
-        <v>3.4</v>
+        <v>3.31</v>
       </c>
       <c r="G9">
-        <v>2.55</v>
+        <v>2.66</v>
       </c>
       <c r="H9">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="I9">
         <v>1.11</v>
@@ -1701,16 +1701,16 @@
         <v>6.5</v>
       </c>
       <c r="K9">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="M9">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="N9">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="O9">
         <v>1.57</v>
@@ -1749,28 +1749,28 @@
         <v>2.49</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1790,13 +1790,13 @@
         <v>115</v>
       </c>
       <c r="F10">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="G10">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H10">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="I10">
         <v>1.05</v>
@@ -1811,10 +1811,10 @@
         <v>4</v>
       </c>
       <c r="M10">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="N10">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O10">
         <v>1.36</v>
@@ -1853,13 +1853,13 @@
         <v>3.48</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1868,13 +1868,13 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1894,13 +1894,13 @@
         <v>116</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>5.36</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="H11">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="I11">
         <v>1.05</v>
@@ -1966,19 +1966,19 @@
         <v>1.44</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1998,52 +1998,52 @@
         <v>117</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>4.04</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6.35</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V12">
         <v>2</v>
@@ -2102,13 +2102,13 @@
         <v>118</v>
       </c>
       <c r="F13">
-        <v>2.2</v>
+        <v>2.56</v>
       </c>
       <c r="G13">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2.43</v>
       </c>
       <c r="I13">
         <v>1.05</v>
@@ -2123,10 +2123,10 @@
         <v>3.3</v>
       </c>
       <c r="M13">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="N13">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="O13">
         <v>1.41</v>
@@ -2206,13 +2206,13 @@
         <v>119</v>
       </c>
       <c r="F14">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="G14">
-        <v>3.5</v>
+        <v>3.43</v>
       </c>
       <c r="H14">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I14">
         <v>1.05</v>
@@ -2310,13 +2310,13 @@
         <v>120</v>
       </c>
       <c r="F15">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="G15">
         <v>3.25</v>
       </c>
       <c r="H15">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="I15">
         <v>1.05</v>
@@ -2331,10 +2331,10 @@
         <v>3.75</v>
       </c>
       <c r="M15">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="N15">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="O15">
         <v>1.36</v>
@@ -2373,16 +2373,16 @@
         <v>3.1</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE15">
         <v>1.48</v>
@@ -2414,13 +2414,13 @@
         <v>121</v>
       </c>
       <c r="F16">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="G16">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="I16">
         <v>1.04</v>
@@ -2435,10 +2435,10 @@
         <v>2.75</v>
       </c>
       <c r="M16">
-        <v>2.28</v>
+        <v>2.23</v>
       </c>
       <c r="N16">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="O16">
         <v>1.5</v>
@@ -2486,19 +2486,19 @@
         <v>2.9</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2518,13 +2518,13 @@
         <v>122</v>
       </c>
       <c r="F17">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H17">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="I17">
         <v>1.08</v>
@@ -2539,10 +2539,10 @@
         <v>2.9</v>
       </c>
       <c r="M17">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="N17">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="O17">
         <v>1.47</v>
@@ -2581,28 +2581,28 @@
         <v>3.12</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2622,52 +2622,52 @@
         <v>123</v>
       </c>
       <c r="F18">
-        <v>3.05</v>
+        <v>3.13</v>
       </c>
       <c r="G18">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H18">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="M18">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="N18">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q18">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R18">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V18">
         <v>1.1</v>
@@ -2726,13 +2726,13 @@
         <v>124</v>
       </c>
       <c r="F19">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="G19">
-        <v>6.5</v>
+        <v>6.03</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>11.38</v>
       </c>
       <c r="I19">
         <v>1.02</v>
@@ -2893,28 +2893,28 @@
         <v>3.11</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2997,28 +2997,28 @@
         <v>2.64</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -3101,28 +3101,28 @@
         <v>3.08</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -3205,28 +3205,28 @@
         <v>2.22</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="24" spans="1:34">
@@ -3309,28 +3309,28 @@
         <v>3.07</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="25" spans="1:34">
@@ -3413,28 +3413,28 @@
         <v>3.33</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="26" spans="1:34">
@@ -3517,28 +3517,28 @@
         <v>2.86</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="27" spans="1:34">
@@ -3621,28 +3621,28 @@
         <v>2.82</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="28" spans="1:34">
@@ -3662,13 +3662,13 @@
         <v>133</v>
       </c>
       <c r="F28">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="G28">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="H28">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I28">
         <v>1.04</v>
@@ -3683,10 +3683,10 @@
         <v>3.6</v>
       </c>
       <c r="M28">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="N28">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="O28">
         <v>1.36</v>
@@ -3766,13 +3766,13 @@
         <v>134</v>
       </c>
       <c r="F29">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>4.19</v>
+        <v>3.94</v>
       </c>
       <c r="H29">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3829,13 +3829,13 @@
         <v>2.93</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -3844,13 +3844,13 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="30" spans="1:34">
@@ -3870,13 +3870,13 @@
         <v>135</v>
       </c>
       <c r="F30">
-        <v>2.41</v>
+        <v>2.36</v>
       </c>
       <c r="G30">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="H30">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
       <c r="I30">
         <v>1.07</v>
@@ -3891,10 +3891,10 @@
         <v>3.1</v>
       </c>
       <c r="M30">
-        <v>2.04</v>
+        <v>1.72</v>
       </c>
       <c r="N30">
-        <v>1.82</v>
+        <v>1.99</v>
       </c>
       <c r="O30">
         <v>1.41</v>
@@ -3942,19 +3942,19 @@
         <v>1.91</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AG30">
         <v>1.8</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="31" spans="1:34">
@@ -3977,10 +3977,10 @@
         <v>4</v>
       </c>
       <c r="G31">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H31">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="I31">
         <v>1.03</v>
@@ -3995,10 +3995,10 @@
         <v>4.2</v>
       </c>
       <c r="M31">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="N31">
-        <v>2.09</v>
+        <v>1.98</v>
       </c>
       <c r="O31">
         <v>1.33</v>
@@ -4078,13 +4078,13 @@
         <v>137</v>
       </c>
       <c r="F32">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G32">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H32">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I32">
         <v>1.07</v>
@@ -4102,7 +4102,7 @@
         <v>2.09</v>
       </c>
       <c r="N32">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="O32">
         <v>1.44</v>
@@ -4185,10 +4185,10 @@
         <v>1.75</v>
       </c>
       <c r="G33">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H33">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -4203,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="N33">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -4286,13 +4286,13 @@
         <v>139</v>
       </c>
       <c r="F34">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="G34">
-        <v>3.4</v>
+        <v>3.17</v>
       </c>
       <c r="H34">
-        <v>2.9</v>
+        <v>2.81</v>
       </c>
       <c r="I34">
         <v>1.04</v>
@@ -4390,13 +4390,13 @@
         <v>140</v>
       </c>
       <c r="F35">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="G35">
-        <v>3.4</v>
+        <v>3.31</v>
       </c>
       <c r="H35">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="I35">
         <v>1.03</v>
@@ -4494,10 +4494,10 @@
         <v>141</v>
       </c>
       <c r="F36">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="G36">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -4515,10 +4515,10 @@
         <v>3.25</v>
       </c>
       <c r="M36">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="N36">
-        <v>2.01</v>
+        <v>1.79</v>
       </c>
       <c r="O36">
         <v>1.4</v>
@@ -4598,13 +4598,13 @@
         <v>142</v>
       </c>
       <c r="F37">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G37">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H37">
-        <v>5.75</v>
+        <v>4.61</v>
       </c>
       <c r="I37">
         <v>1.08</v>
@@ -4702,13 +4702,13 @@
         <v>143</v>
       </c>
       <c r="F38">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="H38">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I38">
         <v>1.11</v>
@@ -4723,10 +4723,10 @@
         <v>2.4</v>
       </c>
       <c r="M38">
-        <v>2.51</v>
+        <v>2.41</v>
       </c>
       <c r="N38">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="O38">
         <v>1.57</v>
@@ -4783,10 +4783,10 @@
         <v>2.2</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="39" spans="1:34">
@@ -4806,13 +4806,13 @@
         <v>144</v>
       </c>
       <c r="F39">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G39">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H39">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I39">
         <v>1.07</v>
@@ -4827,10 +4827,10 @@
         <v>3.1</v>
       </c>
       <c r="M39">
-        <v>2.08</v>
+        <v>2.11</v>
       </c>
       <c r="N39">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="O39">
         <v>1.44</v>
@@ -4910,13 +4910,13 @@
         <v>145</v>
       </c>
       <c r="F40">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="G40">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H40">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="I40">
         <v>1.07</v>
@@ -4931,10 +4931,10 @@
         <v>3</v>
       </c>
       <c r="M40">
-        <v>2.07</v>
+        <v>2.16</v>
       </c>
       <c r="N40">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O40">
         <v>1.44</v>
@@ -5017,10 +5017,10 @@
         <v>1.95</v>
       </c>
       <c r="G41">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H41">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I41">
         <v>1.07</v>
@@ -5035,10 +5035,10 @@
         <v>3.1</v>
       </c>
       <c r="M41">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="N41">
-        <v>1.63</v>
+        <v>1.77</v>
       </c>
       <c r="O41">
         <v>1.44</v>
@@ -5086,7 +5086,7 @@
         <v>3.15</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AE41">
         <v>1.27</v>
@@ -5118,13 +5118,13 @@
         <v>147</v>
       </c>
       <c r="F42">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="G42">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H42">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -5139,10 +5139,10 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="N42">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -5222,13 +5222,13 @@
         <v>148</v>
       </c>
       <c r="F43">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="G43">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="H43">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="I43">
         <v>1.04</v>
@@ -5243,7 +5243,7 @@
         <v>3.3</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="N43">
         <v>1.8</v>
@@ -5326,13 +5326,13 @@
         <v>149</v>
       </c>
       <c r="F44">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="G44">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="H44">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="N44">
         <v>2</v>
@@ -5430,13 +5430,13 @@
         <v>150</v>
       </c>
       <c r="F45">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="G45">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H45">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="I45">
         <v>1.05</v>
@@ -5451,10 +5451,10 @@
         <v>3.5</v>
       </c>
       <c r="M45">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="N45">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="O45">
         <v>1.36</v>
@@ -5534,13 +5534,13 @@
         <v>151</v>
       </c>
       <c r="F46">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="G46">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H46">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="I46">
         <v>1.05</v>
@@ -5558,7 +5558,7 @@
         <v>1.8</v>
       </c>
       <c r="N46">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="O46">
         <v>1.36</v>

--- a/Jogos_do_Dia/2023-02-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1006,7 +1006,7 @@
         <v>2</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>108</v>
       </c>
       <c r="F3">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>3.47</v>
       </c>
       <c r="H3">
-        <v>3.1</v>
+        <v>3.44</v>
       </c>
       <c r="I3">
         <v>1.06</v>
@@ -1083,10 +1083,10 @@
         <v>3.25</v>
       </c>
       <c r="M3">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="N3">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="O3">
         <v>1.4</v>
@@ -1110,10 +1110,10 @@
         <v>1.7</v>
       </c>
       <c r="V3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X3">
         <v>2.07</v>
@@ -1166,13 +1166,13 @@
         <v>109</v>
       </c>
       <c r="F4">
-        <v>2.88</v>
+        <v>2.79</v>
       </c>
       <c r="G4">
-        <v>3.4</v>
+        <v>3.52</v>
       </c>
       <c r="H4">
-        <v>2.3</v>
+        <v>2.53</v>
       </c>
       <c r="I4">
         <v>1.05</v>
@@ -1187,10 +1187,10 @@
         <v>3.6</v>
       </c>
       <c r="M4">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="N4">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="O4">
         <v>1.38</v>
@@ -1214,10 +1214,10 @@
         <v>1.4</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="W4">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="X4">
         <v>1.48</v>
@@ -1270,13 +1270,13 @@
         <v>110</v>
       </c>
       <c r="F5">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="G5">
-        <v>3.18</v>
+        <v>3.15</v>
       </c>
       <c r="H5">
-        <v>2.89</v>
+        <v>2.6</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="N5">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1374,13 +1374,13 @@
         <v>111</v>
       </c>
       <c r="F6">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="G6">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H6">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="I6">
         <v>1.08</v>
@@ -1395,10 +1395,10 @@
         <v>2.37</v>
       </c>
       <c r="M6">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="N6">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="O6">
         <v>1.56</v>
@@ -1478,13 +1478,13 @@
         <v>112</v>
       </c>
       <c r="F7">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="G7">
-        <v>3.56</v>
+        <v>3.6</v>
       </c>
       <c r="H7">
-        <v>4.34</v>
+        <v>4.5</v>
       </c>
       <c r="I7">
         <v>1.02</v>
@@ -1502,7 +1502,7 @@
         <v>2.1</v>
       </c>
       <c r="N7">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="O7">
         <v>1.42</v>
@@ -1686,13 +1686,13 @@
         <v>114</v>
       </c>
       <c r="F9">
-        <v>3.31</v>
+        <v>3.35</v>
       </c>
       <c r="G9">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="H9">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="I9">
         <v>1.11</v>
@@ -1704,13 +1704,13 @@
         <v>1.5</v>
       </c>
       <c r="L9">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="M9">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="N9">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="O9">
         <v>1.57</v>
@@ -1793,10 +1793,10 @@
         <v>2.7</v>
       </c>
       <c r="G10">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H10">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="I10">
         <v>1.05</v>
@@ -1814,7 +1814,7 @@
         <v>1.78</v>
       </c>
       <c r="N10">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="O10">
         <v>1.36</v>
@@ -1862,10 +1862,10 @@
         <v>2.13</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF10">
         <v>1.54</v>
@@ -1894,13 +1894,13 @@
         <v>116</v>
       </c>
       <c r="F11">
-        <v>5.36</v>
+        <v>5.4</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H11">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="I11">
         <v>1.05</v>
@@ -1915,10 +1915,10 @@
         <v>3.75</v>
       </c>
       <c r="M11">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="N11">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="O11">
         <v>1.37</v>
@@ -1998,13 +1998,13 @@
         <v>117</v>
       </c>
       <c r="F12">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="G12">
-        <v>4.04</v>
+        <v>3.65</v>
       </c>
       <c r="H12">
-        <v>6.35</v>
+        <v>4.6</v>
       </c>
       <c r="I12">
         <v>1.07</v>
@@ -2019,10 +2019,10 @@
         <v>3.25</v>
       </c>
       <c r="M12">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="N12">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="O12">
         <v>1.4</v>
@@ -2102,13 +2102,13 @@
         <v>118</v>
       </c>
       <c r="F13">
-        <v>2.56</v>
+        <v>2.33</v>
       </c>
       <c r="G13">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H13">
-        <v>2.43</v>
+        <v>2.93</v>
       </c>
       <c r="I13">
         <v>1.05</v>
@@ -2123,10 +2123,10 @@
         <v>3.3</v>
       </c>
       <c r="M13">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="N13">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="O13">
         <v>1.41</v>
@@ -2206,13 +2206,13 @@
         <v>119</v>
       </c>
       <c r="F14">
-        <v>2.21</v>
+        <v>2.22</v>
       </c>
       <c r="G14">
-        <v>3.43</v>
+        <v>3.35</v>
       </c>
       <c r="H14">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>1.05</v>
@@ -2310,13 +2310,13 @@
         <v>120</v>
       </c>
       <c r="F15">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="G15">
-        <v>3.25</v>
+        <v>3.02</v>
       </c>
       <c r="H15">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="I15">
         <v>1.05</v>
@@ -2331,10 +2331,10 @@
         <v>3.75</v>
       </c>
       <c r="M15">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="N15">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="O15">
         <v>1.36</v>
@@ -2414,13 +2414,13 @@
         <v>121</v>
       </c>
       <c r="F16">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="G16">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="H16">
-        <v>3.99</v>
+        <v>3.4</v>
       </c>
       <c r="I16">
         <v>1.04</v>
@@ -2435,10 +2435,10 @@
         <v>2.75</v>
       </c>
       <c r="M16">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="N16">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="O16">
         <v>1.5</v>
@@ -2518,7 +2518,7 @@
         <v>122</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="G17">
         <v>3.1</v>
@@ -2539,10 +2539,10 @@
         <v>2.9</v>
       </c>
       <c r="M17">
-        <v>2.09</v>
+        <v>2.2</v>
       </c>
       <c r="N17">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="O17">
         <v>1.47</v>
@@ -2622,13 +2622,13 @@
         <v>123</v>
       </c>
       <c r="F18">
-        <v>3.13</v>
+        <v>2.91</v>
       </c>
       <c r="G18">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="H18">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="I18">
         <v>1.04</v>
@@ -2643,10 +2643,10 @@
         <v>4.33</v>
       </c>
       <c r="M18">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="N18">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O18">
         <v>1.3</v>
@@ -2655,10 +2655,10 @@
         <v>3.4</v>
       </c>
       <c r="Q18">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R18">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S18">
         <v>1.7</v>
@@ -2685,28 +2685,28 @@
         <v>2.96</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2726,13 +2726,13 @@
         <v>124</v>
       </c>
       <c r="F19">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="G19">
-        <v>6.03</v>
+        <v>6</v>
       </c>
       <c r="H19">
-        <v>11.38</v>
+        <v>8.5</v>
       </c>
       <c r="I19">
         <v>1.02</v>
@@ -3662,13 +3662,13 @@
         <v>133</v>
       </c>
       <c r="F28">
-        <v>2.1</v>
+        <v>2.46</v>
       </c>
       <c r="G28">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="H28">
-        <v>2.9</v>
+        <v>2.69</v>
       </c>
       <c r="I28">
         <v>1.04</v>
@@ -3683,10 +3683,10 @@
         <v>3.6</v>
       </c>
       <c r="M28">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="N28">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="O28">
         <v>1.36</v>
@@ -3766,25 +3766,25 @@
         <v>134</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="G29">
-        <v>3.94</v>
+        <v>3.6</v>
       </c>
       <c r="H29">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M29">
         <v>1.53</v>
@@ -3793,25 +3793,25 @@
         <v>2.25</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Q29">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R29">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
         <v>1.6</v>
@@ -3832,16 +3832,16 @@
         <v>1.67</v>
       </c>
       <c r="AB29">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC29">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="AD29">
         <v>0</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF29">
         <v>1.57</v>
@@ -3870,10 +3870,10 @@
         <v>135</v>
       </c>
       <c r="F30">
-        <v>2.36</v>
+        <v>2.37</v>
       </c>
       <c r="G30">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="H30">
         <v>2.59</v>
@@ -3891,10 +3891,10 @@
         <v>3.1</v>
       </c>
       <c r="M30">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>1.99</v>
+        <v>1.67</v>
       </c>
       <c r="O30">
         <v>1.41</v>
@@ -3974,13 +3974,13 @@
         <v>136</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="G31">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="H31">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="I31">
         <v>1.03</v>
@@ -3995,10 +3995,10 @@
         <v>4.2</v>
       </c>
       <c r="M31">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="N31">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="O31">
         <v>1.33</v>
@@ -4078,13 +4078,13 @@
         <v>137</v>
       </c>
       <c r="F32">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="G32">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H32">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I32">
         <v>1.07</v>
@@ -4099,10 +4099,10 @@
         <v>2.75</v>
       </c>
       <c r="M32">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="N32">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="O32">
         <v>1.44</v>
@@ -4182,13 +4182,13 @@
         <v>138</v>
       </c>
       <c r="F33">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G33">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H33">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -4203,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N33">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -4286,13 +4286,13 @@
         <v>139</v>
       </c>
       <c r="F34">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="G34">
-        <v>3.17</v>
+        <v>3.35</v>
       </c>
       <c r="H34">
-        <v>2.81</v>
+        <v>2.77</v>
       </c>
       <c r="I34">
         <v>1.04</v>
@@ -4390,13 +4390,13 @@
         <v>140</v>
       </c>
       <c r="F35">
-        <v>2.49</v>
+        <v>2.64</v>
       </c>
       <c r="G35">
-        <v>3.31</v>
+        <v>3.3</v>
       </c>
       <c r="H35">
-        <v>2.35</v>
+        <v>2.51</v>
       </c>
       <c r="I35">
         <v>1.03</v>
@@ -4411,10 +4411,10 @@
         <v>3.75</v>
       </c>
       <c r="M35">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="N35">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O35">
         <v>1.33</v>
@@ -4494,13 +4494,13 @@
         <v>141</v>
       </c>
       <c r="F36">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="G36">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="I36">
         <v>1.06</v>
@@ -4515,10 +4515,10 @@
         <v>3.25</v>
       </c>
       <c r="M36">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="N36">
-        <v>1.79</v>
+        <v>2.03</v>
       </c>
       <c r="O36">
         <v>1.4</v>
@@ -4598,13 +4598,13 @@
         <v>142</v>
       </c>
       <c r="F37">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="G37">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H37">
-        <v>4.61</v>
+        <v>5.2</v>
       </c>
       <c r="I37">
         <v>1.08</v>
@@ -4619,10 +4619,10 @@
         <v>2.9</v>
       </c>
       <c r="M37">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="N37">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="O37">
         <v>1.5</v>
@@ -4702,13 +4702,13 @@
         <v>143</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="G38">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H38">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I38">
         <v>1.11</v>
@@ -4723,10 +4723,10 @@
         <v>2.4</v>
       </c>
       <c r="M38">
-        <v>2.41</v>
+        <v>2.7</v>
       </c>
       <c r="N38">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O38">
         <v>1.57</v>
@@ -4806,13 +4806,13 @@
         <v>144</v>
       </c>
       <c r="F39">
-        <v>3.3</v>
+        <v>2.89</v>
       </c>
       <c r="G39">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H39">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="I39">
         <v>1.07</v>
@@ -4827,10 +4827,10 @@
         <v>3.1</v>
       </c>
       <c r="M39">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="N39">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="O39">
         <v>1.44</v>
@@ -4910,13 +4910,13 @@
         <v>145</v>
       </c>
       <c r="F40">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="G40">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H40">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="I40">
         <v>1.07</v>
@@ -4931,10 +4931,10 @@
         <v>3</v>
       </c>
       <c r="M40">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="N40">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O40">
         <v>1.44</v>
@@ -5014,10 +5014,10 @@
         <v>146</v>
       </c>
       <c r="F41">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="G41">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H41">
         <v>3.8</v>
@@ -5035,10 +5035,10 @@
         <v>3.1</v>
       </c>
       <c r="M41">
-        <v>1.94</v>
+        <v>2.15</v>
       </c>
       <c r="N41">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="O41">
         <v>1.44</v>
@@ -5118,13 +5118,13 @@
         <v>147</v>
       </c>
       <c r="F42">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="G42">
         <v>3.5</v>
       </c>
       <c r="H42">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -5139,10 +5139,10 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="N42">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -5222,13 +5222,13 @@
         <v>148</v>
       </c>
       <c r="F43">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="G43">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H43">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I43">
         <v>1.04</v>
@@ -5246,7 +5246,7 @@
         <v>1.9</v>
       </c>
       <c r="N43">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O43">
         <v>1.4</v>
@@ -5326,13 +5326,13 @@
         <v>149</v>
       </c>
       <c r="F44">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="G44">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H44">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -5430,13 +5430,13 @@
         <v>150</v>
       </c>
       <c r="F45">
-        <v>2.75</v>
+        <v>3.15</v>
       </c>
       <c r="G45">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H45">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I45">
         <v>1.05</v>
@@ -5451,10 +5451,10 @@
         <v>3.5</v>
       </c>
       <c r="M45">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="N45">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O45">
         <v>1.36</v>
@@ -5534,13 +5534,13 @@
         <v>151</v>
       </c>
       <c r="F46">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="G46">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="H46">
-        <v>2.55</v>
+        <v>3.15</v>
       </c>
       <c r="I46">
         <v>1.05</v>
@@ -5555,10 +5555,10 @@
         <v>3.75</v>
       </c>
       <c r="M46">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="N46">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="O46">
         <v>1.36</v>
